--- a/1_Result_Tables/4_ifoCAST_evaluations_matched_since_2021/ifoCAst_error_tables_filtered_first_since_2021.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched_since_2021/ifoCAst_error_tables_filtered_first_since_2021.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02331454424853859</v>
+        <v>0.0243169190249313</v>
       </c>
       <c r="C3">
-        <v>0.5960189285422115</v>
+        <v>0.5668789673031478</v>
       </c>
       <c r="D3">
-        <v>0.5885893277591647</v>
+        <v>0.5577053810991515</v>
       </c>
       <c r="E3">
-        <v>0.7671957558271323</v>
+        <v>0.7467967468455868</v>
       </c>
       <c r="F3">
-        <v>0.7890733089085337</v>
+        <v>0.7668538649144974</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3199295010073911</v>
+        <v>0.3353634677292027</v>
       </c>
       <c r="C4">
-        <v>0.6042968414701282</v>
+        <v>0.6039326226106767</v>
       </c>
       <c r="D4">
-        <v>0.8218535769822743</v>
+        <v>0.7960447219234688</v>
       </c>
       <c r="E4">
-        <v>0.906561402764465</v>
+        <v>0.8922133836271841</v>
       </c>
       <c r="F4">
-        <v>0.8743382409444874</v>
+        <v>0.8507563830411711</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
